--- a/documentation/build_orders/terran/three_cc_bio_tank.xlsx
+++ b/documentation/build_orders/terran/three_cc_bio_tank.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\build_orders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\RTSanalytics\documentation\build_orders\terran\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789D5FD3-AD8C-40CB-AA75-CB4BE49C860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12258923-C91F-42F7-B4D0-FA8F2624380B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="7845" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F91843A-8CB0-4ACA-A959-FCE1F6361964}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C1E2F8-D576-4889-93BF-4269B7626941}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,6 +532,9 @@
       <c r="C2">
         <v>16</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -543,6 +546,9 @@
       <c r="C3">
         <v>39</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -554,6 +560,9 @@
       <c r="C4">
         <v>42</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -565,6 +574,9 @@
       <c r="C5">
         <v>86</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -576,6 +588,9 @@
       <c r="C6">
         <v>100</v>
       </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -587,6 +602,9 @@
       <c r="C7">
         <v>109</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -598,6 +616,9 @@
       <c r="C8">
         <v>118</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -609,6 +630,9 @@
       <c r="C9">
         <v>129</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -620,6 +644,9 @@
       <c r="C10">
         <v>139</v>
       </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -631,6 +658,9 @@
       <c r="C11">
         <v>161</v>
       </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -642,6 +672,9 @@
       <c r="C12">
         <v>182</v>
       </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -653,6 +686,9 @@
       <c r="C13">
         <v>188</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -664,6 +700,9 @@
       <c r="C14">
         <v>194</v>
       </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -675,6 +714,9 @@
       <c r="C15">
         <v>194</v>
       </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -686,8 +728,11 @@
       <c r="C16">
         <v>212</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -697,8 +742,11 @@
       <c r="C17">
         <v>216</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -708,8 +756,11 @@
       <c r="C18">
         <v>216</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -719,8 +770,11 @@
       <c r="C19">
         <v>235</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -730,8 +784,11 @@
       <c r="C20">
         <v>238</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -741,8 +798,11 @@
       <c r="C21">
         <v>244</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -752,8 +812,11 @@
       <c r="C22">
         <v>248</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -763,8 +826,11 @@
       <c r="C23">
         <v>248</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -774,8 +840,11 @@
       <c r="C24">
         <v>254</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -785,8 +854,11 @@
       <c r="C25">
         <v>266</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -796,8 +868,11 @@
       <c r="C26">
         <v>270</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -807,8 +882,11 @@
       <c r="C27">
         <v>270</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -818,8 +896,11 @@
       <c r="C28">
         <v>277</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -829,8 +910,11 @@
       <c r="C29">
         <v>278</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -840,8 +924,11 @@
       <c r="C30">
         <v>288</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -851,8 +938,11 @@
       <c r="C31">
         <v>297</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -862,8 +952,11 @@
       <c r="C32">
         <v>297</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -873,8 +966,11 @@
       <c r="C33">
         <v>297</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -884,8 +980,11 @@
       <c r="C34">
         <v>300</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -895,8 +994,11 @@
       <c r="C35">
         <v>305</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -906,8 +1008,11 @@
       <c r="C36">
         <v>314</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -917,8 +1022,11 @@
       <c r="C37">
         <v>314</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -928,8 +1036,11 @@
       <c r="C38">
         <v>335</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -939,8 +1050,11 @@
       <c r="C39">
         <v>342</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -950,8 +1064,11 @@
       <c r="C40">
         <v>343</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -961,8 +1078,11 @@
       <c r="C41">
         <v>343</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -972,8 +1092,11 @@
       <c r="C42">
         <v>345</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -983,8 +1106,11 @@
       <c r="C43">
         <v>356</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -994,8 +1120,11 @@
       <c r="C44">
         <v>375</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1005,8 +1134,11 @@
       <c r="C45">
         <v>375</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -1016,8 +1148,11 @@
       <c r="C46">
         <v>377</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -1027,8 +1162,11 @@
       <c r="C47">
         <v>392</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1038,8 +1176,11 @@
       <c r="C48">
         <v>397</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -1049,8 +1190,11 @@
       <c r="C49">
         <v>398</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -1060,8 +1204,11 @@
       <c r="C50">
         <v>398</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1071,8 +1218,11 @@
       <c r="C51">
         <v>405</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1081,6 +1231,9 @@
       </c>
       <c r="C52">
         <v>405</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
